--- a/medicine/Enfance/Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse/Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse.xlsx
+++ b/medicine/Enfance/Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse/Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une maison d'édition de littérature d'enfance et de jeunesse est spécialisée dans ce domaine. Elle peut être indépendante ou être la filiale d'un groupe éditorial[1]. La liste ci-dessous reprend les principales maison d’éditions francophones. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une maison d'édition de littérature d'enfance et de jeunesse est spécialisée dans ce domaine. Elle peut être indépendante ou être la filiale d'un groupe éditorial. La liste ci-dessous reprend les principales maison d’éditions francophones. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>De A à Z</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sommaire :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
 Haut – A
 B
 C
@@ -540,8 +554,43 @@
 X
 Y
 Z
-A
-Actes Sud jeunesse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Actes Sud jeunesse
 L'Agapante &amp; Cie (théâtre)
 Albin Michel jeunesse
 Alice Jeunesse
@@ -549,9 +598,43 @@
 Arrosoir (éditions de l')
 Au vent des îles (Au vent des îles, basée à Tahiti, a pour ligne éditoriale la parution d’auteurs polynésiens ou de livres ayant pour sujet l’Océanie.)
 Auzou
-Averbode Éditions
-B
-Bakame
+Averbode Éditions</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bakame
 Balivernes
 Éditions Le Baron perché
 Bayard, également éditeur de magazines « belles histoires de pomme d'api », « chair de poule » roman, « je bouquine », « j'aime lire »
@@ -561,9 +644,43 @@
 Bonhomme vert (éditions du) théâtre illustré
 Bordas coll. bibliothèque des benjamins, grindelire
 Bourrelier (1931-1963)
-Bréal jeunesse
-C
-Caïman (les éditions du)
+Bréal jeunesse</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Caïman (les éditions du)
 Casterman
 Chandeigne (bilingue portugais et brésilien)
 Coop Breizh
@@ -571,17 +688,85 @@
 Circonflexe
 Corentin (Les collections des éditions Corentin présentent une sélection des grands classiques du patrimoine de la littérature)
 Corps Puce, écrits de jeunes et poésie.
-Courte échelle
-D
-Dadoclem
+Courte échelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dadoclem
 Dargaud (filiale Media Participation)
 Desclée de Brouwer
 Deux coqs d'or
 Didier Jeunesse
 Au Diable Vauvert
-Dyozol
-E
-L'École des loisirs
+Dyozol</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'École des loisirs
 Éditions 26/22
 Éditions Éveil et Découvertes
 Éditions l'Édune
@@ -592,43 +777,281 @@
 ELKA Éditions
 Elor jeunesse (éditions chrétiennes)
 Étagère du bas
-EVALOU est une maison d'édition jeunesse spécialisée dans la publication d'albums pour enfants de 5 à 10 ans.
-F
-Faton (revue d'art et d'archéologie pour enfant)
+EVALOU est une maison d'édition jeunesse spécialisée dans la publication d'albums pour enfants de 5 à 10 ans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Faton (revue d'art et d'archéologie pour enfant)
 Flammarion jeunesse
 Fleur de Ville
 Fleurus éditions
 Flies France (contes du monde)
 Éditions Fonfon
-Frimousse
-G
-Gallimard Jeunesse
+Frimousse</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Gallimard Jeunesse
 Gautier-Languereau (filiale Hachette)
 Glénat
 Grandir
 Grasset Jeunesse (filiale Hachette)
 Gründ (filiale Editis)
-Gulf Stream Editeur
-H
-Hachette jeunesse
+Gulf Stream Editeur</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hachette jeunesse
 Hatier (filiale Hachette)
-Hélium (filiale Actes Sud)
-I
-Ibis Rouge Éditions
+Hélium (filiale Actes Sud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ibis Rouge Éditions
 In Octavo
 Les Intouchables
-Intervista
-J
-Jasmin (les éditions du)
-La Joie de lire
-K
-Kaléidoscope (Éditions) (filiale École des Loisirs)
+Intervista</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Jasmin (les éditions du)
+La Joie de lire</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Kaléidoscope (Éditions) (filiale École des Loisirs)
 Kana Éditions (Manga) (filiale Media Participation)
 Kanjil
 Kilowatt
-Kimane Éditions
-L
-L'Agrume
+Kimane Éditions</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>L'Agrume
 La maison est en carton
 La Palissade
 De La Martinière jeunesse
@@ -641,9 +1064,43 @@
 Limonade (Suisse)
 Lito
 Lirabelle (éditions)
-Locus Solus (éditions)
-M
-Magnard
+Locus Solus (éditions)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Magnard
 Maison Georges
 Mango (filiale Media Participation)
 Marmaille &amp; Compagnie
@@ -659,13 +1116,115 @@
 MeMo (éditions)
 Moka éditions
 Motus
-Mouck
-N
-Nathan
-O
-Océan édition
-P
-Palette
+Mouck</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Océan édition</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Palette
 Père Castor
 Père Fouettard
 Petit Roland
@@ -676,42 +1235,280 @@
 Point de suspension
 Pont du vent
 Picquier jeunesse
-Psyché éditions
-R
-Rageot (filiale Hachette)
+Psyché éditions</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Rageot (filiale Hachette)
 Rue des Enfants
 Rue du monde
 Éditions du Rouergue (filiale Actes Sud)
 Éditions du Ricochet
-Rouge Safran
-S
-Samir Éditeur
+Rouge Safran</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Samir Éditeur
 Sarbacane (filiale Gallimard)
 Sedrap (Éditions Averbode)
 Seuil jeunesse (filiale Média participations)
-Six Citrons acides[2]
+Six Citrons acides
 Sourire qui mord (Maison d’édition créée en 1976, fermée en 1996)
 Souris qui raconte (La)
-Syros (filiale Editis)
-T
-Talents hauts
+Syros (filiale Editis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Talents hauts
 Tartamudo Éditions
 Tertium éditions
 Thierry Magnier (filiale Actes Sud)
 Tourbillon
 Trois chardons (livre audio)
-Typlume &amp; graphine
-U
-Utopique[3]
-V
-Vedrana Éditions
+Typlume &amp; graphine</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Utopique</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Vedrana Éditions
 Vents d'Ailleurs
 Vents d'Ouest
-Volpilière
-Y
-Yomad (Maroc)
-Z
-zébulo édition (France / La Réunion)
+Volpilière</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Yomad (Maroc)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_de_maisons_d'édition_pour_la_littérature_d'enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_maisons_d%27%C3%A9dition_pour_la_litt%C3%A9rature_d%27enfance_et_de_jeunesse</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>De A à Z</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>zébulo édition (France / La Réunion)
 Zoom éditions</t>
         </is>
       </c>
